--- a/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
@@ -8,6 +8,22 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A158">
+      <text>
+        <t xml:space="preserve">Lieber weg?
+	-Matthew Fullerton</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,9 +1640,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B20"/>
-    <hyperlink r:id="rId2" ref="B32"/>
+    <hyperlink r:id="rId2" ref="B20"/>
+    <hyperlink r:id="rId3" ref="B32"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
@@ -781,8 +781,8 @@
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="9">
-        <v>2014.0</v>
+      <c r="B25" s="14">
+        <v>42664.0</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -805,10 +805,9 @@
       <c r="A27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="14">
-        <v>42664.0</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="2">
+        <v>2014.0</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>

--- a/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
@@ -339,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -376,6 +376,11 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -418,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -475,6 +480,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -946,7 +954,9 @@
       <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="19">
+        <v>2.112328961</v>
+      </c>
       <c r="C39" s="17">
         <v>2.112328961</v>
       </c>
@@ -1010,12 +1020,14 @@
       <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="19">
+        <v>2.966616969</v>
+      </c>
       <c r="C43" s="18"/>
       <c r="D43" s="17">
         <v>2.966616969</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
@@ -1393,7 +1405,9 @@
       <c r="A66" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="19">
+        <v>1.154689717</v>
+      </c>
       <c r="C66" s="17">
         <v>1.154689717</v>
       </c>
@@ -1576,7 +1590,9 @@
       <c r="A77" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="18"/>
+      <c r="B77" s="19">
+        <v>2.742439075</v>
+      </c>
       <c r="C77" s="17">
         <v>2.742439075</v>
       </c>
@@ -1591,7 +1607,9 @@
       <c r="A78" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="18"/>
+      <c r="B78" s="19">
+        <v>0.731674782</v>
+      </c>
       <c r="C78" s="18"/>
       <c r="D78" s="17">
         <v>0.731674782</v>

--- a/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -495,7 +495,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG9_Investment_in_R_and_D_as_%_of_GDP_OECD_2014.xlsx
@@ -495,7 +495,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
